--- a/biology/Botanique/Chloropicrine/Chloropicrine.xlsx
+++ b/biology/Botanique/Chloropicrine/Chloropicrine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La chloropicrine  est une substance active de produit phytosanitaire (ou produit phytopharmaceutique, ou pesticide), qui présente un effet fongicide. Dérivée du chloroforme, elle appartient à la famille chimique des aliphatiques.
@@ -513,7 +525,9 @@
           <t>Réglementation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sur le plan de la réglementation des produits phytopharmaceutiques :
 pour l’Union européenne : cette substance active est en révision en vue de l'inscription  à l’annexe I de la directive 91/414/CEE.
@@ -545,9 +559,11 @@
           <t>Caractéristiques physico-chimiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon le site de la Bibliothèque nationale de médecine des États-Unis[8], cette substance incombustible prend la forme d'un liquide légèrement huileux, incolore à jaune, avec une forte odeur irritante. Plus dense que l'eau, elle a des vapeurs toxiques qui irritent les yeux, le nez et la gorge[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon le site de la Bibliothèque nationale de médecine des États-Unis, cette substance incombustible prend la forme d'un liquide légèrement huileux, incolore à jaune, avec une forte odeur irritante. Plus dense que l'eau, elle a des vapeurs toxiques qui irritent les yeux, le nez et la gorge.
 Les caractéristiques physico-chimiques dont l'ordre de grandeur est indiqué ci-après, influencent les risques de transfert de cette substance active vers les eaux, et le risque de pollution des eaux :
 hydrolyse à pH 7 : stable ;
 solubilité : 1 620 mg·l-1 ;
@@ -581,7 +597,9 @@
           <t>Écotoxicologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Sur le plan de l’écotoxicologie, les concentrations létales 50 (CL50) dont l'ordre de grandeur est indiqué ci-après, sont observées :
 CL50 sur daphnies : 0,91 mg·l-1,</t>
@@ -612,11 +630,13 @@
           <t>Utilisation criminelle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans l’affaire du meurtre de Katia Lherbier et Géraldine Giraud, retrouvées sans aucune trace de coups ni d’étranglement, l’enquête a conclu à l’utilisation de chloropicrine par le principal suspect qui utilisait ce produit dans le cadre de son métier de garde-chasse.
-En février 2024, le général ukrainien Oleksandr Tarnavskyi accuse les forces armées russes d'utilliser la chloropicrine au combat[10].
-Début mai 2024, le département d’Etat américain accuse Moscou d’avoir utilisé la chloropicrine contre les troupes ukrainiennes, en violation du CIAC, signé et ratifié par la Russie[11].
+En février 2024, le général ukrainien Oleksandr Tarnavskyi accuse les forces armées russes d'utilliser la chloropicrine au combat.
+Début mai 2024, le département d’Etat américain accuse Moscou d’avoir utilisé la chloropicrine contre les troupes ukrainiennes, en violation du CIAC, signé et ratifié par la Russie.
 </t>
         </is>
       </c>
